--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634823.660063677</v>
+        <v>629535.5445689043</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791239</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10674774.78546247</v>
+        <v>10673004.84729121</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>160.516473750961</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>278.8796391329908</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226266</v>
       </c>
       <c r="G3" t="n">
-        <v>108.8954510456196</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>165.6893824661652</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380.4336054813079</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>168.8698713730057</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722305</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>25.91413715808942</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>137.1600313810573</v>
+        <v>196.9795508884335</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>188.9710070958261</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>196.5040049025236</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>71.7010629725649</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>91.3201668585711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,10 +1379,10 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
@@ -1421,13 +1421,13 @@
         <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>48.6395644546039</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>41.47724628046096</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>97.42475435993872</v>
@@ -1537,13 +1537,13 @@
         <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>25.69408253527532</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
         <v>60.68516871456093</v>
@@ -1576,7 +1576,7 @@
         <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
@@ -1588,10 +1588,10 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>56.46472721673931</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>15.69477671468863</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>23.85909625276561</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.69798496361241</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>32.32548396033791</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
@@ -1822,13 +1822,13 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.17382596574971</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973564984</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.57601873167816</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196057</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380029</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.2233042466794</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644667</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883881</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541085</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658278</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.882059701038699</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.00800320656602</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,7 +3512,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412925</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.9290753658111</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978639</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,7 +3749,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412925</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
         <v>236.9290753658111</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978639</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1035.690705650472</v>
+        <v>1384.47378388589</v>
       </c>
       <c r="C2" t="n">
-        <v>873.552853376774</v>
+        <v>991.2982823888209</v>
       </c>
       <c r="D2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475499</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>135.6402479253956</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354884</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465279</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="V2" t="n">
-        <v>1832.676160441268</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="W2" t="n">
-        <v>1832.676160441268</v>
+        <v>1666.170389070729</v>
       </c>
       <c r="X2" t="n">
-        <v>1832.676160441268</v>
+        <v>1384.47378388589</v>
       </c>
       <c r="Y2" t="n">
-        <v>1436.185451361869</v>
+        <v>1384.47378388589</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>832.7972297032359</v>
+        <v>556.1927859813152</v>
       </c>
       <c r="C3" t="n">
-        <v>682.1429992633281</v>
+        <v>405.5385555414074</v>
       </c>
       <c r="D3" t="n">
-        <v>552.0540318848084</v>
+        <v>275.4495881628877</v>
       </c>
       <c r="E3" t="n">
-        <v>415.6075409956961</v>
+        <v>139.0030972737754</v>
       </c>
       <c r="F3" t="n">
-        <v>291.1757348788279</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569814</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>363.2348054569814</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653872</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>2015.935249535682</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1805.872106214324</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1583.332104585391</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1353.214858718678</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>1163.90778106869</v>
+        <v>887.3033373467692</v>
       </c>
       <c r="Y3" t="n">
-        <v>984.5935641441972</v>
+        <v>707.9891204222765</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475499</v>
+        <v>367.2671768311467</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475499</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475499</v>
+        <v>197.0620588971359</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>878.2441984008522</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U4" t="n">
-        <v>592.805406642753</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V4" t="n">
-        <v>326.8260614635773</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W4" t="n">
-        <v>43.49565939475499</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="X4" t="n">
-        <v>43.49565939475499</v>
+        <v>775.5872567058046</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475499</v>
+        <v>552.475195522448</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1790.506600564711</v>
+        <v>627.2307618041195</v>
       </c>
       <c r="C5" t="n">
-        <v>1397.331099067641</v>
+        <v>234.0552603070501</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.889970284309</v>
+        <v>63.47963265754936</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.889970284309</v>
+        <v>63.47963265754936</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>50.62559822793118</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207959</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845421</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737749</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737749</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737749</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737749</v>
+        <v>1813.668821661859</v>
       </c>
       <c r="X5" t="n">
-        <v>2174.782969737749</v>
+        <v>1424.216216594915</v>
       </c>
       <c r="Y5" t="n">
-        <v>2174.782969737749</v>
+        <v>1027.725507515516</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>363.2348054569814</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653872</v>
+        <v>1471.526139546293</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S6" t="n">
-        <v>2039.852292637618</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T6" t="n">
-        <v>1862.868480836526</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1652.805337515168</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.265335886235</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1200.148090019522</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.7007773287658</v>
+        <v>520.8689647928841</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475499</v>
+        <v>520.8689647928841</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U7" t="n">
-        <v>618.2256087514338</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V7" t="n">
-        <v>352.246263572258</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="W7" t="n">
-        <v>352.246263572258</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="X7" t="n">
-        <v>213.7007773287658</v>
+        <v>743.9810259762407</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.7007773287658</v>
+        <v>520.8689647928841</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1530.670136571906</v>
+        <v>1589.058072986822</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.670136571906</v>
+        <v>1589.058072986822</v>
       </c>
       <c r="D8" t="n">
-        <v>1530.670136571906</v>
+        <v>1203.61694420349</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>801.033419320034</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>384.1389808500118</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618604</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4838,16 +4838,16 @@
         <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.655591362702</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.655591362702</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1931.164882283303</v>
+        <v>1589.058072986822</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>671.3093811653594</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="C10" t="n">
-        <v>671.3093811653594</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="D10" t="n">
-        <v>515.6762680678742</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
-        <v>360.1174559270767</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>876.3346765091921</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>673.5185926917414</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>673.5185926917414</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>388.0798009336424</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>388.0798009336424</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>388.0798009336424</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>388.0798009336424</v>
       </c>
       <c r="Y10" t="n">
-        <v>856.5173998566606</v>
+        <v>388.0798009336424</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.856237801876</v>
+        <v>1688.124554843851</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.477011451001</v>
+        <v>1366.745328492975</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.832157813863</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E11" t="n">
-        <v>726.0449080766008</v>
+        <v>722.3132251185751</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527725</v>
+        <v>722.3132251185751</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2962.108232106552</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2962.108232106552</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2962.108232106552</v>
+        <v>2633.682115215322</v>
       </c>
       <c r="W11" t="n">
-        <v>2662.905472221034</v>
+        <v>2334.479355329803</v>
       </c>
       <c r="X11" t="n">
-        <v>2345.249142300284</v>
+        <v>2016.823025409054</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.554708367079</v>
+        <v>2016.823025409054</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>175.2341099238429</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.4129340497493</v>
+        <v>499.0613902693681</v>
       </c>
       <c r="C13" t="n">
-        <v>473.0040912619324</v>
+        <v>400.6525474815512</v>
       </c>
       <c r="D13" t="n">
-        <v>389.1672533106411</v>
+        <v>316.8157095302598</v>
       </c>
       <c r="E13" t="n">
-        <v>305.4047163160375</v>
+        <v>233.0531725356562</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,7 +5200,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027736</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245445</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915627</v>
+        <v>872.8795642628196</v>
       </c>
       <c r="W13" t="n">
-        <v>684.8246775948567</v>
+        <v>661.3454373401911</v>
       </c>
       <c r="X13" t="n">
-        <v>684.8246775948567</v>
+        <v>499.0613902693681</v>
       </c>
       <c r="Y13" t="n">
-        <v>684.8246775948567</v>
+        <v>499.0613902693681</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1651.747936481893</v>
+        <v>1357.33730510659</v>
       </c>
       <c r="C14" t="n">
-        <v>1330.368710131017</v>
+        <v>1035.958078755714</v>
       </c>
       <c r="D14" t="n">
-        <v>1016.723856493879</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="E14" t="n">
-        <v>1016.723856493879</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="F14" t="n">
-        <v>671.6256931700507</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>330.2592128042477</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>77.97243751693236</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5294,7 +5294,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>3081.85628798076</v>
       </c>
       <c r="U14" t="n">
-        <v>2921.999930786569</v>
+        <v>2897.899833561553</v>
       </c>
       <c r="V14" t="n">
-        <v>2921.999930786569</v>
+        <v>2627.589299411266</v>
       </c>
       <c r="W14" t="n">
-        <v>2622.79717090105</v>
+        <v>2328.386539525747</v>
       </c>
       <c r="X14" t="n">
-        <v>2305.140840980301</v>
+        <v>2010.730209604998</v>
       </c>
       <c r="Y14" t="n">
-        <v>1980.446407047096</v>
+        <v>1686.035775671793</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>315.0936002318645</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="C16" t="n">
-        <v>315.0936002318645</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="D16" t="n">
-        <v>315.0936002318645</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="E16" t="n">
-        <v>231.3310632372608</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="F16" t="n">
-        <v>145.8014035964276</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964276</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
         <v>102.7129143774627</v>
@@ -5440,46 +5440,46 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138165</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173673</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1411.975923592938</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1248.053146907366</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1034.41063029546</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>840.2275602624785</v>
+        <v>741.8597555915627</v>
       </c>
       <c r="W16" t="n">
-        <v>628.6934333398501</v>
+        <v>530.3256286689342</v>
       </c>
       <c r="X16" t="n">
-        <v>466.4093862690272</v>
+        <v>530.3256286689342</v>
       </c>
       <c r="Y16" t="n">
-        <v>315.0936002318645</v>
+        <v>379.0098426317714</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
         <v>827.8895422975449</v>
@@ -5507,7 +5507,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229791</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222398</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960396</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343036</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655128</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5829,13 +5829,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
         <v>1223.947919817482</v>
@@ -5908,28 +5908,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,13 +6066,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960404</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343044</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655136</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,43 +6230,43 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
         <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>358.2210070908127</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>841.787092989126</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,16 +6464,16 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
         <v>2986.344026377456</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766599</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311918</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394301</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038541</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>870.8603675628847</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1463.749019270602</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270602</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861583</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.73045008374181</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>231.2685546898325</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805523</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458865</v>
+        <v>693.3398934768793</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041659</v>
+        <v>876.5295275080884</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872944</v>
+        <v>1150.886415124779</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
         <v>565.7512566404055</v>
@@ -7196,16 +7196,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573995</v>
@@ -7214,10 +7214,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885599</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634916</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072687</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462925</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
         <v>623.4297566485498</v>
@@ -7345,37 +7345,37 @@
         <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296519</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918815</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161908</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194235</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330095</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974528</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7433,28 +7433,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885599</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072687</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102858</v>
+        <v>437.1381783102857</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918815</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161908</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194235</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330095</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974528</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,19 +7676,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222409</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960407</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>683.142663665514</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072221</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>246.3235116806337</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>491.2390209141234</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>210.3493810477016</v>
+        <v>465.3882399439952</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886039</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8222,13 +8222,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>464.0015950999625</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>305.2720051970416</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>210.3493810477016</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886039</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>183.630508041353</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>416.5368911778199</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>369.9375821741921</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8532,7 +8532,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,7 +8544,7 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8766,22 +8766,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,13 +9012,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N15" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9173,7 +9173,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,7 +9486,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,7 +9723,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063258</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>278.2539578070002</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>291.5199566763059</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>101.5477195668416</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>226.1301825283239</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>58.98028050914951</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>152.9540584366629</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -23504,7 +23504,7 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.18065662903921</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>126.3281877686799</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>37.5796411460439</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>97.38412662420622</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>934269.9951615679</v>
+        <v>933367.6737409275</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>934269.9951615679</v>
+        <v>933367.6737409275</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835507.9960984729</v>
+        <v>835507.9960984727</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835507.9960984731</v>
+        <v>835507.9960984727</v>
       </c>
     </row>
     <row r="7">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>360664.3561867136</v>
+        <v>360664.3561867137</v>
       </c>
       <c r="C2" t="n">
-        <v>360664.3561867136</v>
+        <v>360664.3561867134</v>
       </c>
       <c r="D2" t="n">
         <v>360664.3561867136</v>
       </c>
       <c r="E2" t="n">
-        <v>318718.0468488017</v>
+        <v>318718.0468488016</v>
       </c>
       <c r="F2" t="n">
         <v>318718.0468488015</v>
@@ -26329,31 +26329,31 @@
         <v>360664.3561867138</v>
       </c>
       <c r="H2" t="n">
-        <v>360664.3561867138</v>
+        <v>360664.3561867137</v>
       </c>
       <c r="I2" t="n">
-        <v>360664.3561867138</v>
+        <v>360664.3561867137</v>
       </c>
       <c r="J2" t="n">
         <v>360664.3561867137</v>
       </c>
       <c r="K2" t="n">
+        <v>360664.3561867138</v>
+      </c>
+      <c r="L2" t="n">
+        <v>360664.3561867139</v>
+      </c>
+      <c r="M2" t="n">
         <v>360664.3561867137</v>
       </c>
-      <c r="L2" t="n">
-        <v>360664.3561867142</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>360664.3561867137</v>
+      </c>
+      <c r="O2" t="n">
         <v>360664.3561867138</v>
       </c>
-      <c r="N2" t="n">
-        <v>360664.3561867138</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>360664.3561867137</v>
-      </c>
-      <c r="P2" t="n">
-        <v>360664.3561867138</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401365</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728552</v>
+        <v>62456.24177539688</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962291</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746777</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746777</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26427,10 +26427,10 @@
         <v>112797.3745002078</v>
       </c>
       <c r="F4" t="n">
-        <v>112797.3745002079</v>
+        <v>112797.3745002078</v>
       </c>
       <c r="G4" t="n">
-        <v>160556.2909917901</v>
+        <v>160556.29099179</v>
       </c>
       <c r="H4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,10 +26479,10 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984051</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,22 +26491,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="O5" t="n">
         <v>58169.76931551968</v>
-      </c>
-      <c r="O5" t="n">
-        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88040.10116425087</v>
+        <v>-83989.42915683609</v>
       </c>
       <c r="C6" t="n">
-        <v>94164.84712760505</v>
+        <v>89869.22787721857</v>
       </c>
       <c r="D6" t="n">
-        <v>87572.78578788263</v>
+        <v>79836.49656449081</v>
       </c>
       <c r="E6" t="n">
-        <v>40612.09117470875</v>
+        <v>40402.35962801913</v>
       </c>
       <c r="F6" t="n">
-        <v>152734.6526487532</v>
+        <v>152524.9211020637</v>
       </c>
       <c r="G6" t="n">
-        <v>94512.97034272208</v>
+        <v>94512.97034272214</v>
       </c>
       <c r="H6" t="n">
-        <v>141938.2958794043</v>
+        <v>141938.295879404</v>
       </c>
       <c r="I6" t="n">
-        <v>141938.2958794041</v>
+        <v>141938.295879404</v>
       </c>
       <c r="J6" t="n">
-        <v>-71103.62171788151</v>
+        <v>-64587.33656330814</v>
       </c>
       <c r="K6" t="n">
-        <v>135698.527476621</v>
+        <v>135698.5274766212</v>
       </c>
       <c r="L6" t="n">
-        <v>80515.93854200038</v>
+        <v>76467.10133152785</v>
       </c>
       <c r="M6" t="n">
-        <v>99737.46641978133</v>
+        <v>98685.7714085929</v>
       </c>
       <c r="N6" t="n">
         <v>141938.2958794041</v>
       </c>
       <c r="O6" t="n">
-        <v>114170.6018366328</v>
+        <v>114170.6018366329</v>
       </c>
       <c r="P6" t="n">
-        <v>141938.2958794042</v>
+        <v>141938.2958794041</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,22 +26707,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
+        <v>130.3599693155844</v>
+      </c>
+      <c r="O2" t="n">
         <v>130.3599693155843</v>
-      </c>
-      <c r="O2" t="n">
-        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.79058445423</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,7 +26799,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -26811,22 +26811,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.060736844378</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="O4" t="n">
         <v>776.4890963014444</v>
-      </c>
-      <c r="O4" t="n">
-        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26917,34 +26917,34 @@
         <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6268397466069</v>
+        <v>78.0703022192461</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287425</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.79058445423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>228.7272727311377</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>106.6784398832829</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343686</v>
       </c>
       <c r="G3" t="n">
-        <v>9.963768703234592</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>66.05013652868152</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.05619277297495</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.7168461224932</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27743,10 +27743,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758576</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>161.499869715399</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,10 +27786,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>94.57948761378938</v>
+        <v>34.75996810641325</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>209.5866825387948</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>212.5271230543532</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -28014,19 +28014,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>50.9609165011839</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>129.560773712952</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668673</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634528552</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28980,19 +28980,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29223,16 +29223,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901232</v>
+        <v>30.27223765901141</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29536,19 +29536,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901311</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,13 +29782,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738833319</v>
+        <v>43.49509683159744</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861254176</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>106.8683420224697</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,19 +30165,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733463</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,46 +30378,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634530172</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733463</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,40 +30615,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M43" t="n">
-        <v>5.636002634529518</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.297982108279</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30879,7 +30879,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>93.07534195014198</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344373</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>341.675183490027</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>117.9622589983897</v>
+        <v>373.0011178946833</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34942,13 +34942,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>314.2765435022353</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>155.7081677729452</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>117.9622589983897</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344373</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246407</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>263.2887214473282</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>220.3737447500957</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,7 +35264,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,13 +35732,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N15" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634527659</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873205</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,7 +36206,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>313.3380164832366</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,7 +36443,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565485</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656</v>
+        <v>381.9767751655991</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729924</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.7566830047994</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>258.8908014987991</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,13 +37078,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.9226305176212</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341195</v>
+        <v>487.9795421773837</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>82.70543230055102</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345617</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.128169309789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>227.9553781604278</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>188.193610950082</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>313.3380164832366</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.984252171609</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
-        <v>193.8093140873215</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634530243</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>200.5318035203919</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133878</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
